--- a/Alpha/WinClient/Shell/Templates/GisZhkh_Customer_Export.xlsx
+++ b/Alpha/WinClient/Shell/Templates/GisZhkh_Customer_Export.xlsx
@@ -25,12 +25,12 @@
     <definedName name="Номер_ЛС_УО">OFFSET('Основные сведения'!$A$3:$A$65536,,,COUNTA('Основные сведения'!$A$3:$A$65536))</definedName>
     <definedName name="Тип_ДСОЦ">Тип_ДСОЦ!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Количество проживающих, чел.</t>
   </si>
@@ -128,13 +128,7 @@
     <t>Адрес дома, помещения, комнаты</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>Адрес помещения</t>
-  </si>
-  <si>
-    <t>Являтся нанимателем?</t>
   </si>
   <si>
     <t>Сведения, удостоверяющие личность потребителя (для ФЛ и ИП)</t>
@@ -246,7 +240,16 @@
     <t>Глобальный уникальный идентификатор дома по ФИАС/Идентификационный код дома в ГИС ЖКХ</t>
   </si>
   <si>
-    <t>11.0.0.1</t>
+    <t>Является нанимателем?</t>
+  </si>
+  <si>
+    <t>Лицевые счета на помещение(я) разделены?</t>
+  </si>
+  <si>
+    <t>11.7.0.1</t>
+  </si>
+  <si>
+    <t>LSv3</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -538,13 +541,13 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -557,12 +560,12 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,6 +597,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -947,136 +956,141 @@
     <col min="2" max="2" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="12" width="28.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="11" customWidth="1"/>
-    <col min="14" max="15" width="27.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" style="2" customWidth="1"/>
-    <col min="17" max="19" width="23.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="134.7109375" customWidth="1"/>
+    <col min="5" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="26.85546875" style="1" customWidth="1"/>
+    <col min="9" max="13" width="28.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="10" customWidth="1"/>
+    <col min="15" max="16" width="27.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" style="1" customWidth="1"/>
+    <col min="18" max="20" width="23.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="23.7109375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="134.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="19" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="16"/>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
-    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="G1:N1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Вид_документа_удостоверяющего_личность</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F1048576">
       <formula1>"Да,Нет"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
@@ -1110,21 +1124,21 @@
   <sheetData>
     <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
@@ -1133,21 +1147,21 @@
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="15"/>
     </row>
   </sheetData>
@@ -1190,60 +1204,60 @@
     <col min="3" max="3" width="59.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="11" customWidth="1"/>
+    <col min="9" max="9" width="13" style="10" customWidth="1"/>
     <col min="10" max="10" width="126.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="40" t="s">
+      <c r="A1" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>67</v>
+      <c r="F2" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="43"/>
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1284,26 +1298,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1501,9 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1512,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Alpha/WinClient/Shell/Templates/GisZhkh_Customer_Export.xlsx
+++ b/Alpha/WinClient/Shell/Templates/GisZhkh_Customer_Export.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\integration\excel-templates\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\AuroraGit\Alpha\WinClient\Shell\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Основные сведения" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -940,14 +940,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,13 +1087,13 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Вид_документа_удостоверяющего_личность</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Да,Нет"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"ЛС УО,ЛС РСО,ЛС ОГВ/ОМС,ЛС КР"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1103,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1174,10 +1174,10 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A65536" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Номер_ЛС_УО</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Жилое помещение,Нежилое помещение, Блок в доме блокированной застройки"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1187,7 +1187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1269,16 +1269,16 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Тип_ДСОЦ</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"да,нет"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Номер_ЛС_УО</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Договор ресурсоснабжения (ЛС РСО или ЛС РЦ),Договор социального найма жилого помещения (ЛС ОГВ/ОМС или ЛС РЦ)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1512,7 +1512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
